--- a/Code/Results/Cases/Case_3_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_80/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.62496247370498</v>
+        <v>14.48390181660633</v>
       </c>
       <c r="C2">
-        <v>6.416775292371741</v>
+        <v>5.734302902197689</v>
       </c>
       <c r="D2">
-        <v>4.517647530975701</v>
+        <v>7.290883180393839</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.90723751222518</v>
+        <v>42.15903205432626</v>
       </c>
       <c r="G2">
-        <v>38.20256793240777</v>
+        <v>50.20208621533102</v>
       </c>
       <c r="H2">
-        <v>12.85562540785994</v>
+        <v>19.70584663822526</v>
       </c>
       <c r="I2">
-        <v>21.14439467318006</v>
+        <v>31.28105683502368</v>
       </c>
       <c r="J2">
-        <v>6.189271807536029</v>
+        <v>10.54022212088717</v>
       </c>
       <c r="K2">
-        <v>11.18177939804169</v>
+        <v>11.90429623765264</v>
       </c>
       <c r="L2">
-        <v>7.35654222166065</v>
+        <v>11.80628642405434</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.7977627958601</v>
+        <v>14.31168369448204</v>
       </c>
       <c r="C3">
-        <v>6.155742912500942</v>
+        <v>5.633383999484288</v>
       </c>
       <c r="D3">
-        <v>4.365522148871947</v>
+        <v>7.280207899678215</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.62451563536266</v>
+        <v>42.2157933931824</v>
       </c>
       <c r="G3">
-        <v>37.7586174336701</v>
+        <v>50.25317137566486</v>
       </c>
       <c r="H3">
-        <v>12.87923899713483</v>
+        <v>19.75201204293856</v>
       </c>
       <c r="I3">
-        <v>21.18895681819421</v>
+        <v>31.35940082269659</v>
       </c>
       <c r="J3">
-        <v>6.226689278279986</v>
+        <v>10.5602361602346</v>
       </c>
       <c r="K3">
-        <v>10.46564608043633</v>
+        <v>11.78577553237878</v>
       </c>
       <c r="L3">
-        <v>7.213854225613159</v>
+        <v>11.8085745886991</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.26698643556377</v>
+        <v>14.20793119382198</v>
       </c>
       <c r="C4">
-        <v>5.989771922000195</v>
+        <v>5.5695452749381</v>
       </c>
       <c r="D4">
-        <v>4.270895580193196</v>
+        <v>7.274563744765454</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.47115029792035</v>
+        <v>42.25886651814269</v>
       </c>
       <c r="G4">
-        <v>37.5158572255463</v>
+        <v>50.29609691813972</v>
       </c>
       <c r="H4">
-        <v>12.90110734932586</v>
+        <v>19.78326307820607</v>
       </c>
       <c r="I4">
-        <v>21.22972550102944</v>
+        <v>31.41259177609564</v>
       </c>
       <c r="J4">
-        <v>6.251282910261981</v>
+        <v>10.57336073849569</v>
       </c>
       <c r="K4">
-        <v>10.00152138992554</v>
+        <v>11.7147955213377</v>
       </c>
       <c r="L4">
-        <v>7.128143591828354</v>
+        <v>11.81162098893006</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.04508042530622</v>
+        <v>14.1662002709966</v>
       </c>
       <c r="C5">
-        <v>5.920742630001218</v>
+        <v>5.543074460698623</v>
       </c>
       <c r="D5">
-        <v>4.232082413971066</v>
+        <v>7.27249455504572</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.41363483074841</v>
+        <v>42.27848402540059</v>
       </c>
       <c r="G5">
-        <v>37.42427101440913</v>
+        <v>50.31649062120639</v>
       </c>
       <c r="H5">
-        <v>12.91180964584203</v>
+        <v>19.79672831840612</v>
       </c>
       <c r="I5">
-        <v>21.24958742290067</v>
+        <v>31.43554541591072</v>
       </c>
       <c r="J5">
-        <v>6.261708895678519</v>
+        <v>10.57891974718324</v>
       </c>
       <c r="K5">
-        <v>9.806231637693278</v>
+        <v>11.68635161601517</v>
       </c>
       <c r="L5">
-        <v>7.093726108502161</v>
+        <v>11.81327618925224</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.00789914135128</v>
+        <v>14.15930544742839</v>
       </c>
       <c r="C6">
-        <v>5.90919737164547</v>
+        <v>5.538651918980646</v>
       </c>
       <c r="D6">
-        <v>4.225623990126803</v>
+        <v>7.272164963419622</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.40438210918062</v>
+        <v>42.2818661265383</v>
       </c>
       <c r="G6">
-        <v>37.40950151970367</v>
+        <v>50.32005202389072</v>
       </c>
       <c r="H6">
-        <v>12.91369311635891</v>
+        <v>19.79900830151351</v>
       </c>
       <c r="I6">
-        <v>21.25307812851332</v>
+        <v>31.43943399021359</v>
       </c>
       <c r="J6">
-        <v>6.263464425152264</v>
+        <v>10.57985555147103</v>
       </c>
       <c r="K6">
-        <v>9.773431861777476</v>
+        <v>11.68165844998615</v>
       </c>
       <c r="L6">
-        <v>7.088042871696302</v>
+        <v>11.81357605175665</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.26401623475484</v>
+        <v>14.20736610932672</v>
       </c>
       <c r="C7">
-        <v>5.988846561129466</v>
+        <v>5.569190106014324</v>
       </c>
       <c r="D7">
-        <v>4.270373076825864</v>
+        <v>7.274534901826378</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.47035459623197</v>
+        <v>42.25912272990677</v>
       </c>
       <c r="G7">
-        <v>37.51459256461101</v>
+        <v>50.29636021601369</v>
       </c>
       <c r="H7">
-        <v>12.90124451480991</v>
+        <v>19.78344171916908</v>
       </c>
       <c r="I7">
-        <v>21.22998037389097</v>
+        <v>31.41289616467514</v>
       </c>
       <c r="J7">
-        <v>6.251421887575814</v>
+        <v>10.57343485577539</v>
       </c>
       <c r="K7">
-        <v>9.998912581276597</v>
+        <v>11.71440992976992</v>
       </c>
       <c r="L7">
-        <v>7.127677316868164</v>
+        <v>11.81164163496183</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.34456437414135</v>
+        <v>14.424137402614</v>
       </c>
       <c r="C8">
-        <v>6.327973763005145</v>
+        <v>5.699903959232902</v>
       </c>
       <c r="D8">
-        <v>4.465479596434089</v>
+        <v>7.287014536531511</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.80549715943702</v>
+        <v>42.17689566400963</v>
       </c>
       <c r="G8">
-        <v>38.04321256226099</v>
+        <v>50.21729837579961</v>
       </c>
       <c r="H8">
-        <v>12.86219986221124</v>
+        <v>19.72116126444629</v>
       </c>
       <c r="I8">
-        <v>21.15690213129471</v>
+        <v>31.30701313758853</v>
       </c>
       <c r="J8">
-        <v>6.201835254050476</v>
+        <v>10.54694974500165</v>
       </c>
       <c r="K8">
-        <v>10.93991241902443</v>
+        <v>11.8630768059803</v>
       </c>
       <c r="L8">
-        <v>7.306968488759772</v>
+        <v>11.8067353362916</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.32495458216514</v>
+        <v>14.8628426492321</v>
       </c>
       <c r="C9">
-        <v>6.946540695554942</v>
+        <v>5.940731989575024</v>
       </c>
       <c r="D9">
-        <v>4.836232988221131</v>
+        <v>7.31862420913654</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.62741095448033</v>
+        <v>42.08097430334333</v>
       </c>
       <c r="G9">
-        <v>39.32278125536005</v>
+        <v>50.15417050321842</v>
       </c>
       <c r="H9">
-        <v>12.8469775934144</v>
+        <v>19.62209757175284</v>
       </c>
       <c r="I9">
-        <v>21.12562934378617</v>
+        <v>31.13980320828593</v>
       </c>
       <c r="J9">
-        <v>6.117602918045558</v>
+        <v>10.50162471425708</v>
       </c>
       <c r="K9">
-        <v>12.59256635986749</v>
+        <v>12.16746092488493</v>
       </c>
       <c r="L9">
-        <v>7.672222413924149</v>
+        <v>11.81009045342446</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.7397847727465</v>
+        <v>15.19052409573797</v>
       </c>
       <c r="C10">
-        <v>7.371501327543093</v>
+        <v>6.107428659658203</v>
       </c>
       <c r="D10">
-        <v>5.098873966888384</v>
+        <v>7.346075743123828</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.33688721797936</v>
+        <v>42.05042303039014</v>
       </c>
       <c r="G10">
-        <v>40.41852442442782</v>
+        <v>50.16402248584427</v>
       </c>
       <c r="H10">
-        <v>12.87724942605123</v>
+        <v>19.56339922929989</v>
       </c>
       <c r="I10">
-        <v>21.17891633994519</v>
+        <v>31.04167819198615</v>
       </c>
       <c r="J10">
-        <v>6.063888627666084</v>
+        <v>10.47232770797534</v>
       </c>
       <c r="K10">
-        <v>13.6912891514489</v>
+        <v>12.39704992098751</v>
       </c>
       <c r="L10">
-        <v>7.947080011180963</v>
+        <v>11.82039668327497</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.35094698764779</v>
+        <v>15.3401378413108</v>
       </c>
       <c r="C11">
-        <v>7.558306930270526</v>
+        <v>6.180888058898946</v>
       </c>
       <c r="D11">
-        <v>5.215808555667844</v>
+        <v>7.359453642244418</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.68355690622299</v>
+        <v>42.04520194441431</v>
       </c>
       <c r="G11">
-        <v>40.95215602221178</v>
+        <v>50.18073103711689</v>
       </c>
       <c r="H11">
-        <v>12.90093200394188</v>
+        <v>19.53975780213139</v>
       </c>
       <c r="I11">
-        <v>21.22149220077703</v>
+        <v>31.00242260921021</v>
       </c>
       <c r="J11">
-        <v>6.041286986529755</v>
+        <v>10.45986317852112</v>
       </c>
       <c r="K11">
-        <v>14.16658078935068</v>
+        <v>12.50238536527582</v>
       </c>
       <c r="L11">
-        <v>8.073177347001186</v>
+        <v>11.82677062626928</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.57778259716077</v>
+        <v>15.39682050077122</v>
       </c>
       <c r="C12">
-        <v>7.628107101367345</v>
+        <v>6.208352418012448</v>
       </c>
       <c r="D12">
-        <v>5.259693908211861</v>
+        <v>7.364644872852355</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.81834420104506</v>
+        <v>42.04447207968403</v>
       </c>
       <c r="G12">
-        <v>41.15938286841836</v>
+        <v>50.18881522344854</v>
       </c>
       <c r="H12">
-        <v>12.91140274935826</v>
+        <v>19.53124579714212</v>
       </c>
       <c r="I12">
-        <v>21.24040143375715</v>
+        <v>30.98833259540141</v>
       </c>
       <c r="J12">
-        <v>6.032997603587244</v>
+        <v>10.45526681201497</v>
       </c>
       <c r="K12">
-        <v>14.34308370742437</v>
+        <v>12.5423678919961</v>
       </c>
       <c r="L12">
-        <v>8.12105321567492</v>
+        <v>11.82942495199262</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.52913287449268</v>
+        <v>15.3846124821165</v>
       </c>
       <c r="C13">
-        <v>7.613116133422896</v>
+        <v>6.202453365821094</v>
       </c>
       <c r="D13">
-        <v>5.250260411900301</v>
+        <v>7.363521319053384</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.7891580889233</v>
+        <v>42.04457381214259</v>
       </c>
       <c r="G13">
-        <v>41.11452225097479</v>
+        <v>50.18699603910205</v>
       </c>
       <c r="H13">
-        <v>12.90907959929066</v>
+        <v>19.53305941355794</v>
       </c>
       <c r="I13">
-        <v>21.23620262635155</v>
+        <v>30.99133263408098</v>
       </c>
       <c r="J13">
-        <v>6.034770793100316</v>
+        <v>10.45625122728877</v>
       </c>
       <c r="K13">
-        <v>14.30522461565225</v>
+        <v>12.53375328937156</v>
       </c>
       <c r="L13">
-        <v>8.11073711161491</v>
+        <v>11.82884262139518</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.36970064236001</v>
+        <v>15.34480090661089</v>
       </c>
       <c r="C14">
-        <v>7.564068247885346</v>
+        <v>6.183154711651023</v>
       </c>
       <c r="D14">
-        <v>5.219427104024951</v>
+        <v>7.35987823223157</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.69457517512548</v>
+        <v>42.04511690641331</v>
       </c>
       <c r="G14">
-        <v>40.96910091547942</v>
+        <v>50.18136092645781</v>
       </c>
       <c r="H14">
-        <v>12.90176287155515</v>
+        <v>19.53904868438324</v>
       </c>
       <c r="I14">
-        <v>21.2229911533385</v>
+        <v>31.00124787157685</v>
       </c>
       <c r="J14">
-        <v>6.040599580655992</v>
+        <v>10.45948255618379</v>
       </c>
       <c r="K14">
-        <v>14.18117124584224</v>
+        <v>12.5056730577477</v>
       </c>
       <c r="L14">
-        <v>8.077113753797285</v>
+        <v>11.82698418661618</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.2714470524344</v>
+        <v>15.320417184316</v>
       </c>
       <c r="C15">
-        <v>7.533902724797498</v>
+        <v>6.171287397228877</v>
       </c>
       <c r="D15">
-        <v>5.200488542642951</v>
+        <v>7.357662974126425</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.63709970505025</v>
+        <v>42.04561197022579</v>
       </c>
       <c r="G15">
-        <v>40.88069984456304</v>
+        <v>50.1781380140919</v>
       </c>
       <c r="H15">
-        <v>12.89747919103225</v>
+        <v>19.54277466041811</v>
       </c>
       <c r="I15">
-        <v>21.21526616701615</v>
+        <v>31.00742223467044</v>
       </c>
       <c r="J15">
-        <v>6.044205140640417</v>
+        <v>10.46147793365497</v>
       </c>
       <c r="K15">
-        <v>14.10473327594876</v>
+        <v>12.48848436987304</v>
       </c>
       <c r="L15">
-        <v>8.056534063239086</v>
+        <v>11.82587712794731</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.69919663168166</v>
+        <v>15.18075309209901</v>
       </c>
       <c r="C16">
-        <v>7.359161753690584</v>
+        <v>6.102579140085025</v>
       </c>
       <c r="D16">
-        <v>5.091178213914377</v>
+        <v>7.345219149733165</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.31471906546318</v>
+        <v>42.05093881587519</v>
       </c>
       <c r="G16">
-        <v>40.38436627439864</v>
+        <v>50.16317650877823</v>
       </c>
       <c r="H16">
-        <v>12.87590772654773</v>
+        <v>19.56500587390627</v>
       </c>
       <c r="I16">
-        <v>21.17651561042877</v>
+        <v>31.04435204940928</v>
       </c>
       <c r="J16">
-        <v>6.06540306735615</v>
+        <v>10.47315962287213</v>
       </c>
       <c r="K16">
-        <v>13.65973814601655</v>
+        <v>12.39018105729157</v>
       </c>
       <c r="L16">
-        <v>7.938858246785861</v>
+        <v>11.82001390423551</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.33987541247735</v>
+        <v>15.095177303555</v>
       </c>
       <c r="C17">
-        <v>7.250292370746914</v>
+        <v>6.059812552906137</v>
       </c>
       <c r="D17">
-        <v>5.023446099338402</v>
+        <v>7.33781136104872</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.12312790210889</v>
+        <v>42.05642888774096</v>
       </c>
       <c r="G17">
-        <v>40.08895894124333</v>
+        <v>50.15712929865843</v>
       </c>
       <c r="H17">
-        <v>12.86526731889774</v>
+        <v>19.57942820331455</v>
       </c>
       <c r="I17">
-        <v>21.15754519740238</v>
+        <v>31.06838670700216</v>
       </c>
       <c r="J17">
-        <v>6.078880776754015</v>
+        <v>10.48054667044314</v>
       </c>
       <c r="K17">
-        <v>13.38049889786344</v>
+        <v>12.33007970598896</v>
       </c>
       <c r="L17">
-        <v>7.866919931276752</v>
+        <v>11.81684753388968</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.13014460573018</v>
+        <v>15.04601117615484</v>
       </c>
       <c r="C18">
-        <v>7.187060515781512</v>
+        <v>6.034991774064684</v>
       </c>
       <c r="D18">
-        <v>4.984250562537836</v>
+        <v>7.333634540885697</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.01517772427268</v>
+        <v>42.06040340770205</v>
       </c>
       <c r="G18">
-        <v>39.92235386416309</v>
+        <v>50.15480211015307</v>
       </c>
       <c r="H18">
-        <v>12.86007542042206</v>
+        <v>19.58801161867721</v>
       </c>
       <c r="I18">
-        <v>21.14835053818923</v>
+        <v>31.0827173121496</v>
       </c>
       <c r="J18">
-        <v>6.086804979399637</v>
+        <v>10.4848767413291</v>
       </c>
       <c r="K18">
-        <v>13.21757657880266</v>
+        <v>12.29559721212835</v>
       </c>
       <c r="L18">
-        <v>7.825644466749189</v>
+        <v>11.81518508890723</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.05860599640773</v>
+        <v>15.029375379095</v>
       </c>
       <c r="C19">
-        <v>7.165546180356172</v>
+        <v>6.026550038883015</v>
       </c>
       <c r="D19">
-        <v>4.97093976658035</v>
+        <v>7.33223483860647</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.97901155147456</v>
+        <v>42.06188939733892</v>
       </c>
       <c r="G19">
-        <v>39.8665090016771</v>
+        <v>50.15421186381186</v>
       </c>
       <c r="H19">
-        <v>12.85847462802204</v>
+        <v>19.59096728076996</v>
       </c>
       <c r="I19">
-        <v>21.14552769995151</v>
+        <v>31.08765636039317</v>
       </c>
       <c r="J19">
-        <v>6.089517383779439</v>
+        <v>10.48635679341201</v>
       </c>
       <c r="K19">
-        <v>13.16201556798664</v>
+        <v>12.28393788932855</v>
       </c>
       <c r="L19">
-        <v>7.811687624170127</v>
+        <v>11.81464953274648</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.37844185555317</v>
+        <v>15.10428169938308</v>
       </c>
       <c r="C20">
-        <v>7.261945190638139</v>
+        <v>6.064388254078749</v>
       </c>
       <c r="D20">
-        <v>5.030681142090243</v>
+        <v>7.338591263979809</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.14328993139843</v>
+        <v>42.05575992822619</v>
       </c>
       <c r="G20">
-        <v>40.12006276187083</v>
+        <v>50.15765391366929</v>
       </c>
       <c r="H20">
-        <v>12.86630339180136</v>
+        <v>19.57786310448741</v>
       </c>
       <c r="I20">
-        <v>21.15938589059063</v>
+        <v>31.0657757454357</v>
       </c>
       <c r="J20">
-        <v>6.077428191567114</v>
+        <v>10.4797519018025</v>
       </c>
       <c r="K20">
-        <v>13.41046327862504</v>
+        <v>12.33646892407827</v>
       </c>
       <c r="L20">
-        <v>7.87456758464652</v>
+        <v>11.81716817972352</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.41665398776017</v>
+        <v>15.35649420210394</v>
       </c>
       <c r="C21">
-        <v>7.578500280110141</v>
+        <v>6.188832870065345</v>
       </c>
       <c r="D21">
-        <v>5.228494533190208</v>
+        <v>7.360944916138407</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.72226062937394</v>
+        <v>42.04492354363244</v>
       </c>
       <c r="G21">
-        <v>41.0116741252772</v>
+        <v>50.18296842700011</v>
       </c>
       <c r="H21">
-        <v>12.90387056206253</v>
+        <v>19.53727753294369</v>
       </c>
       <c r="I21">
-        <v>21.22679483995459</v>
+        <v>30.9983144767742</v>
       </c>
       <c r="J21">
-        <v>6.038880165445216</v>
+        <v>10.45853008302621</v>
       </c>
       <c r="K21">
-        <v>14.21770277162275</v>
+        <v>12.51391861564983</v>
       </c>
       <c r="L21">
-        <v>8.086986545401933</v>
+        <v>11.8275235372015</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.06841773219169</v>
+        <v>15.52146479330035</v>
       </c>
       <c r="C22">
-        <v>7.779916533530059</v>
+        <v>6.268101314780925</v>
       </c>
       <c r="D22">
-        <v>5.355462879481895</v>
+        <v>7.376283407200594</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.12114815208786</v>
+        <v>42.04511055422696</v>
       </c>
       <c r="G22">
-        <v>41.62446646331747</v>
+        <v>50.20975264185844</v>
       </c>
       <c r="H22">
-        <v>12.93721912363124</v>
+        <v>19.51332016432832</v>
       </c>
       <c r="I22">
-        <v>21.28716556736816</v>
+        <v>30.95874376321044</v>
       </c>
       <c r="J22">
-        <v>6.015259941640578</v>
+        <v>10.4453811211224</v>
       </c>
       <c r="K22">
-        <v>14.72502290266867</v>
+        <v>12.63042612099064</v>
       </c>
       <c r="L22">
-        <v>8.226535836397197</v>
+        <v>11.83569316881206</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.72298494464011</v>
+        <v>15.43342138278788</v>
       </c>
       <c r="C23">
-        <v>7.672916902301813</v>
+        <v>6.225986830648924</v>
       </c>
       <c r="D23">
-        <v>5.287917791200208</v>
+        <v>7.368031167254252</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.90635600596941</v>
+        <v>42.04434594021772</v>
       </c>
       <c r="G23">
-        <v>41.29462555617619</v>
+        <v>50.1945212222631</v>
       </c>
       <c r="H23">
-        <v>12.9185893522592</v>
+        <v>19.52587161627825</v>
       </c>
       <c r="I23">
-        <v>21.25340123078471</v>
+        <v>30.97944949451664</v>
       </c>
       <c r="J23">
-        <v>6.027720517591999</v>
+        <v>10.45233315224623</v>
       </c>
       <c r="K23">
-        <v>14.45609357513015</v>
+        <v>12.56820627143763</v>
       </c>
       <c r="L23">
-        <v>8.151998027884334</v>
+        <v>11.83120522367231</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.36101579031332</v>
+        <v>15.10016549671892</v>
       </c>
       <c r="C24">
-        <v>7.256678948292911</v>
+        <v>6.06232030661165</v>
       </c>
       <c r="D24">
-        <v>5.027410972599174</v>
+        <v>7.338238414207732</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.13416783660582</v>
+        <v>42.05605981608517</v>
       </c>
       <c r="G24">
-        <v>40.10599067555479</v>
+        <v>50.15741315466157</v>
       </c>
       <c r="H24">
-        <v>12.86583210661467</v>
+        <v>19.5785697766382</v>
       </c>
       <c r="I24">
-        <v>21.15854839300794</v>
+        <v>31.06695456399237</v>
       </c>
       <c r="J24">
-        <v>6.078084358529653</v>
+        <v>10.48011095764101</v>
       </c>
       <c r="K24">
-        <v>13.39692381104882</v>
+        <v>12.33358013612585</v>
       </c>
       <c r="L24">
-        <v>7.871109820444788</v>
+        <v>11.81702272363859</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.77507303429033</v>
+        <v>14.74300647259897</v>
       </c>
       <c r="C25">
-        <v>6.784322761988832</v>
+        <v>5.877325638134556</v>
       </c>
       <c r="D25">
-        <v>4.737483791487873</v>
+        <v>7.309321107346801</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.38686105590908</v>
+        <v>42.0999174773525</v>
       </c>
       <c r="G25">
-        <v>38.94978036819094</v>
+        <v>50.16138266557103</v>
       </c>
       <c r="H25">
-        <v>12.84411604913702</v>
+        <v>19.6464250244593</v>
       </c>
       <c r="I25">
-        <v>21.12128508532759</v>
+        <v>31.18070149434047</v>
       </c>
       <c r="J25">
-        <v>6.138973929302797</v>
+        <v>10.5131813295657</v>
       </c>
       <c r="K25">
-        <v>12.16592209283356</v>
+        <v>12.08393356055824</v>
       </c>
       <c r="L25">
-        <v>7.572141641221247</v>
+        <v>11.80780026918106</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_80/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.48390181660633</v>
+        <v>13.62496247370498</v>
       </c>
       <c r="C2">
-        <v>5.734302902197689</v>
+        <v>6.416775292371613</v>
       </c>
       <c r="D2">
-        <v>7.290883180393839</v>
+        <v>4.517647530975657</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>42.15903205432626</v>
+        <v>29.90723751222525</v>
       </c>
       <c r="G2">
-        <v>50.20208621533102</v>
+        <v>38.2025679324081</v>
       </c>
       <c r="H2">
-        <v>19.70584663822526</v>
+        <v>12.85562540786006</v>
       </c>
       <c r="I2">
-        <v>31.28105683502368</v>
+        <v>21.14439467318016</v>
       </c>
       <c r="J2">
-        <v>10.54022212088717</v>
+        <v>6.189271807536094</v>
       </c>
       <c r="K2">
-        <v>11.90429623765264</v>
+        <v>11.18177939804164</v>
       </c>
       <c r="L2">
-        <v>11.80628642405434</v>
+        <v>7.356542221660665</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.31168369448204</v>
+        <v>12.79776279586008</v>
       </c>
       <c r="C3">
-        <v>5.633383999484288</v>
+        <v>6.155742912500838</v>
       </c>
       <c r="D3">
-        <v>7.280207899678215</v>
+        <v>4.365522148871775</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>42.2157933931824</v>
+        <v>29.62451563536255</v>
       </c>
       <c r="G3">
-        <v>50.25317137566486</v>
+        <v>37.75861743367008</v>
       </c>
       <c r="H3">
-        <v>19.75201204293856</v>
+        <v>12.87923899713472</v>
       </c>
       <c r="I3">
-        <v>31.35940082269659</v>
+        <v>21.18895681819424</v>
       </c>
       <c r="J3">
-        <v>10.5602361602346</v>
+        <v>6.226689278279928</v>
       </c>
       <c r="K3">
-        <v>11.78577553237878</v>
+        <v>10.46564608043635</v>
       </c>
       <c r="L3">
-        <v>11.8085745886991</v>
+        <v>7.213854225613001</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.20793119382198</v>
+        <v>12.26698643556372</v>
       </c>
       <c r="C4">
-        <v>5.5695452749381</v>
+        <v>5.989771922000185</v>
       </c>
       <c r="D4">
-        <v>7.274563744765454</v>
+        <v>4.270895580193166</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.25886651814269</v>
+        <v>29.4711502979198</v>
       </c>
       <c r="G4">
-        <v>50.29609691813972</v>
+        <v>37.51585722554559</v>
       </c>
       <c r="H4">
-        <v>19.78326307820607</v>
+        <v>12.90110734932559</v>
       </c>
       <c r="I4">
-        <v>31.41259177609564</v>
+        <v>21.22972550102901</v>
       </c>
       <c r="J4">
-        <v>10.57336073849569</v>
+        <v>6.251282910262017</v>
       </c>
       <c r="K4">
-        <v>11.7147955213377</v>
+        <v>10.0015213899256</v>
       </c>
       <c r="L4">
-        <v>11.81162098893006</v>
+        <v>7.128143591828334</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.1662002709966</v>
+        <v>12.0450804253062</v>
       </c>
       <c r="C5">
-        <v>5.543074460698623</v>
+        <v>5.920742630001198</v>
       </c>
       <c r="D5">
-        <v>7.27249455504572</v>
+        <v>4.232082413971034</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.27848402540059</v>
+        <v>29.41363483074804</v>
       </c>
       <c r="G5">
-        <v>50.31649062120639</v>
+        <v>37.42427101440861</v>
       </c>
       <c r="H5">
-        <v>19.79672831840612</v>
+        <v>12.91180964584191</v>
       </c>
       <c r="I5">
-        <v>31.43554541591072</v>
+        <v>21.24958742290042</v>
       </c>
       <c r="J5">
-        <v>10.57891974718324</v>
+        <v>6.261708895678586</v>
       </c>
       <c r="K5">
-        <v>11.68635161601517</v>
+        <v>9.806231637693278</v>
       </c>
       <c r="L5">
-        <v>11.81327618925224</v>
+        <v>7.093726108502191</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.15930544742839</v>
+        <v>12.00789914135123</v>
       </c>
       <c r="C6">
-        <v>5.538651918980646</v>
+        <v>5.909197371645449</v>
       </c>
       <c r="D6">
-        <v>7.272164963419622</v>
+        <v>4.225623990126785</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.2818661265383</v>
+        <v>29.40438210918018</v>
       </c>
       <c r="G6">
-        <v>50.32005202389072</v>
+        <v>37.40950151970309</v>
       </c>
       <c r="H6">
-        <v>19.79900830151351</v>
+        <v>12.91369311635867</v>
       </c>
       <c r="I6">
-        <v>31.43943399021359</v>
+        <v>21.25307812851294</v>
       </c>
       <c r="J6">
-        <v>10.57985555147103</v>
+        <v>6.263464425152236</v>
       </c>
       <c r="K6">
-        <v>11.68165844998615</v>
+        <v>9.773431861777508</v>
       </c>
       <c r="L6">
-        <v>11.81357605175665</v>
+        <v>7.088042871696229</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.20736610932672</v>
+        <v>12.26401623475485</v>
       </c>
       <c r="C7">
-        <v>5.569190106014324</v>
+        <v>5.98884656112956</v>
       </c>
       <c r="D7">
-        <v>7.274534901826378</v>
+        <v>4.270373076825938</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.25912272990677</v>
+        <v>29.47035459623205</v>
       </c>
       <c r="G7">
-        <v>50.29636021601369</v>
+        <v>37.51459256461114</v>
       </c>
       <c r="H7">
-        <v>19.78344171916908</v>
+        <v>12.90124451480987</v>
       </c>
       <c r="I7">
-        <v>31.41289616467514</v>
+        <v>21.22998037389105</v>
       </c>
       <c r="J7">
-        <v>10.57343485577539</v>
+        <v>6.251421887575784</v>
       </c>
       <c r="K7">
-        <v>11.71440992976992</v>
+        <v>9.998912581276619</v>
       </c>
       <c r="L7">
-        <v>11.81164163496183</v>
+        <v>7.127677316868164</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.424137402614</v>
+        <v>13.34456437414134</v>
       </c>
       <c r="C8">
-        <v>5.699903959232902</v>
+        <v>6.327973763005006</v>
       </c>
       <c r="D8">
-        <v>7.287014536531511</v>
+        <v>4.46547959643401</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.17689566400963</v>
+        <v>29.80549715943708</v>
       </c>
       <c r="G8">
-        <v>50.21729837579961</v>
+        <v>38.04321256226119</v>
       </c>
       <c r="H8">
-        <v>19.72116126444629</v>
+        <v>12.86219986221126</v>
       </c>
       <c r="I8">
-        <v>31.30701313758853</v>
+        <v>21.15690213129479</v>
       </c>
       <c r="J8">
-        <v>10.54694974500165</v>
+        <v>6.201835254050482</v>
       </c>
       <c r="K8">
-        <v>11.8630768059803</v>
+        <v>10.93991241902444</v>
       </c>
       <c r="L8">
-        <v>11.8067353362916</v>
+        <v>7.306968488759765</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.8628426492321</v>
+        <v>15.32495458216521</v>
       </c>
       <c r="C9">
-        <v>5.940731989575024</v>
+        <v>6.946540695555059</v>
       </c>
       <c r="D9">
-        <v>7.31862420913654</v>
+        <v>4.836232988221145</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.08097430334333</v>
+        <v>30.62741095448003</v>
       </c>
       <c r="G9">
-        <v>50.15417050321842</v>
+        <v>39.32278125535965</v>
       </c>
       <c r="H9">
-        <v>19.62209757175284</v>
+        <v>12.84697759341423</v>
       </c>
       <c r="I9">
-        <v>31.13980320828593</v>
+        <v>21.12562934378593</v>
       </c>
       <c r="J9">
-        <v>10.50162471425708</v>
+        <v>6.117602918045504</v>
       </c>
       <c r="K9">
-        <v>12.16746092488493</v>
+        <v>12.59256635986759</v>
       </c>
       <c r="L9">
-        <v>11.81009045342446</v>
+        <v>7.672222413924054</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.19052409573797</v>
+        <v>16.73978477274648</v>
       </c>
       <c r="C10">
-        <v>6.107428659658203</v>
+        <v>7.371501327543081</v>
       </c>
       <c r="D10">
-        <v>7.346075743123828</v>
+        <v>5.098873966888361</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>42.05042303039014</v>
+        <v>31.33688721797941</v>
       </c>
       <c r="G10">
-        <v>50.16402248584427</v>
+        <v>40.4185244244279</v>
       </c>
       <c r="H10">
-        <v>19.56339922929989</v>
+        <v>12.87724942605124</v>
       </c>
       <c r="I10">
-        <v>31.04167819198615</v>
+        <v>21.17891633994523</v>
       </c>
       <c r="J10">
-        <v>10.47232770797534</v>
+        <v>6.063888627666087</v>
       </c>
       <c r="K10">
-        <v>12.39704992098751</v>
+        <v>13.6912891514489</v>
       </c>
       <c r="L10">
-        <v>11.82039668327497</v>
+        <v>7.947080011180945</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.3401378413108</v>
+        <v>17.35094698764777</v>
       </c>
       <c r="C11">
-        <v>6.180888058898946</v>
+        <v>7.55830693027043</v>
       </c>
       <c r="D11">
-        <v>7.359453642244418</v>
+        <v>5.215808555667761</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>42.04520194441431</v>
+        <v>31.683556906223</v>
       </c>
       <c r="G11">
-        <v>50.18073103711689</v>
+        <v>40.95215602221183</v>
       </c>
       <c r="H11">
-        <v>19.53975780213139</v>
+        <v>12.90093200394193</v>
       </c>
       <c r="I11">
-        <v>31.00242260921021</v>
+        <v>21.22149220077706</v>
       </c>
       <c r="J11">
-        <v>10.45986317852112</v>
+        <v>6.041286986529883</v>
       </c>
       <c r="K11">
-        <v>12.50238536527582</v>
+        <v>14.16658078935065</v>
       </c>
       <c r="L11">
-        <v>11.82677062626928</v>
+        <v>8.0731773470012</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.39682050077122</v>
+        <v>17.57778259716083</v>
       </c>
       <c r="C12">
-        <v>6.208352418012448</v>
+        <v>7.62810710136704</v>
       </c>
       <c r="D12">
-        <v>7.364644872852355</v>
+        <v>5.259693908211869</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>42.04447207968403</v>
+        <v>31.81834420104508</v>
       </c>
       <c r="G12">
-        <v>50.18881522344854</v>
+        <v>41.15938286841836</v>
       </c>
       <c r="H12">
-        <v>19.53124579714212</v>
+        <v>12.91140274935827</v>
       </c>
       <c r="I12">
-        <v>30.98833259540141</v>
+        <v>21.24040143375704</v>
       </c>
       <c r="J12">
-        <v>10.45526681201497</v>
+        <v>6.032997603587184</v>
       </c>
       <c r="K12">
-        <v>12.5423678919961</v>
+        <v>14.34308370742436</v>
       </c>
       <c r="L12">
-        <v>11.82942495199262</v>
+        <v>8.121053215674971</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.3846124821165</v>
+        <v>17.52913287449261</v>
       </c>
       <c r="C13">
-        <v>6.202453365821094</v>
+        <v>7.613116133422968</v>
       </c>
       <c r="D13">
-        <v>7.363521319053384</v>
+        <v>5.250260411900383</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>42.04457381214259</v>
+        <v>31.78915808892354</v>
       </c>
       <c r="G13">
-        <v>50.18699603910205</v>
+        <v>41.11452225097499</v>
       </c>
       <c r="H13">
-        <v>19.53305941355794</v>
+        <v>12.9090795992908</v>
       </c>
       <c r="I13">
-        <v>30.99133263408098</v>
+        <v>21.23620262635173</v>
       </c>
       <c r="J13">
-        <v>10.45625122728877</v>
+        <v>6.034770793100352</v>
       </c>
       <c r="K13">
-        <v>12.53375328937156</v>
+        <v>14.30522461565221</v>
       </c>
       <c r="L13">
-        <v>11.82884262139518</v>
+        <v>8.110737111614942</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.34480090661089</v>
+        <v>17.36970064236001</v>
       </c>
       <c r="C14">
-        <v>6.183154711651023</v>
+        <v>7.56406824788555</v>
       </c>
       <c r="D14">
-        <v>7.35987823223157</v>
+        <v>5.219427104025027</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>42.04511690641331</v>
+        <v>31.69457517512533</v>
       </c>
       <c r="G14">
-        <v>50.18136092645781</v>
+        <v>40.96910091547916</v>
       </c>
       <c r="H14">
-        <v>19.53904868438324</v>
+        <v>12.90176287155507</v>
       </c>
       <c r="I14">
-        <v>31.00124787157685</v>
+        <v>21.22299115333838</v>
       </c>
       <c r="J14">
-        <v>10.45948255618379</v>
+        <v>6.040599580655965</v>
       </c>
       <c r="K14">
-        <v>12.5056730577477</v>
+        <v>14.18117124584227</v>
       </c>
       <c r="L14">
-        <v>11.82698418661618</v>
+        <v>8.077113753797223</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.320417184316</v>
+        <v>17.27144705243437</v>
       </c>
       <c r="C15">
-        <v>6.171287397228877</v>
+        <v>7.533902724797405</v>
       </c>
       <c r="D15">
-        <v>7.357662974126425</v>
+        <v>5.200488542642827</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>42.04561197022579</v>
+        <v>31.63709970505028</v>
       </c>
       <c r="G15">
-        <v>50.1781380140919</v>
+        <v>40.88069984456319</v>
       </c>
       <c r="H15">
-        <v>19.54277466041811</v>
+        <v>12.89747919103229</v>
       </c>
       <c r="I15">
-        <v>31.00742223467044</v>
+        <v>21.21526616701621</v>
       </c>
       <c r="J15">
-        <v>10.46147793365497</v>
+        <v>6.044205140640509</v>
       </c>
       <c r="K15">
-        <v>12.48848436987304</v>
+        <v>14.10473327594874</v>
       </c>
       <c r="L15">
-        <v>11.82587712794731</v>
+        <v>8.056534063239125</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.18075309209901</v>
+        <v>16.69919663168166</v>
       </c>
       <c r="C16">
-        <v>6.102579140085025</v>
+        <v>7.35916175369076</v>
       </c>
       <c r="D16">
-        <v>7.345219149733165</v>
+        <v>5.09117821391432</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>42.05093881587519</v>
+        <v>31.31471906546311</v>
       </c>
       <c r="G16">
-        <v>50.16317650877823</v>
+        <v>40.38436627439867</v>
       </c>
       <c r="H16">
-        <v>19.56500587390627</v>
+        <v>12.87590772654771</v>
       </c>
       <c r="I16">
-        <v>31.04435204940928</v>
+        <v>21.17651561042881</v>
       </c>
       <c r="J16">
-        <v>10.47315962287213</v>
+        <v>6.065403067356183</v>
       </c>
       <c r="K16">
-        <v>12.39018105729157</v>
+        <v>13.65973814601658</v>
       </c>
       <c r="L16">
-        <v>11.82001390423551</v>
+        <v>7.938858246785848</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.095177303555</v>
+        <v>16.33987541247738</v>
       </c>
       <c r="C17">
-        <v>6.059812552906137</v>
+        <v>7.25029237074691</v>
       </c>
       <c r="D17">
-        <v>7.33781136104872</v>
+        <v>5.023446099338327</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.05642888774096</v>
+        <v>31.12312790210872</v>
       </c>
       <c r="G17">
-        <v>50.15712929865843</v>
+        <v>40.08895894124317</v>
       </c>
       <c r="H17">
-        <v>19.57942820331455</v>
+        <v>12.86526731889769</v>
       </c>
       <c r="I17">
-        <v>31.06838670700216</v>
+        <v>21.1575451974023</v>
       </c>
       <c r="J17">
-        <v>10.48054667044314</v>
+        <v>6.078880776754074</v>
       </c>
       <c r="K17">
-        <v>12.33007970598896</v>
+        <v>13.3804988978635</v>
       </c>
       <c r="L17">
-        <v>11.81684753388968</v>
+        <v>7.866919931276723</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.04601117615484</v>
+        <v>16.13014460573017</v>
       </c>
       <c r="C18">
-        <v>6.034991774064684</v>
+        <v>7.187060515781594</v>
       </c>
       <c r="D18">
-        <v>7.333634540885697</v>
+        <v>4.984250562537791</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.06040340770205</v>
+        <v>31.01517772427264</v>
       </c>
       <c r="G18">
-        <v>50.15480211015307</v>
+        <v>39.92235386416309</v>
       </c>
       <c r="H18">
-        <v>19.58801161867721</v>
+        <v>12.860075420422</v>
       </c>
       <c r="I18">
-        <v>31.0827173121496</v>
+        <v>21.14835053818921</v>
       </c>
       <c r="J18">
-        <v>10.4848767413291</v>
+        <v>6.086804979399671</v>
       </c>
       <c r="K18">
-        <v>12.29559721212835</v>
+        <v>13.21757657880271</v>
       </c>
       <c r="L18">
-        <v>11.81518508890723</v>
+        <v>7.825644466749171</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.029375379095</v>
+        <v>16.05860599640772</v>
       </c>
       <c r="C19">
-        <v>6.026550038883015</v>
+        <v>7.165546180356475</v>
       </c>
       <c r="D19">
-        <v>7.33223483860647</v>
+        <v>4.970939766580434</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.06188939733892</v>
+        <v>30.97901155147454</v>
       </c>
       <c r="G19">
-        <v>50.15421186381186</v>
+        <v>39.86650900167702</v>
       </c>
       <c r="H19">
-        <v>19.59096728076996</v>
+        <v>12.85847462802206</v>
       </c>
       <c r="I19">
-        <v>31.08765636039317</v>
+        <v>21.14552769995147</v>
       </c>
       <c r="J19">
-        <v>10.48635679341201</v>
+        <v>6.089517383779508</v>
       </c>
       <c r="K19">
-        <v>12.28393788932855</v>
+        <v>13.1620155679867</v>
       </c>
       <c r="L19">
-        <v>11.81464953274648</v>
+        <v>7.811687624170151</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.10428169938308</v>
+        <v>16.37844185555316</v>
       </c>
       <c r="C20">
-        <v>6.064388254078749</v>
+        <v>7.261945190638014</v>
       </c>
       <c r="D20">
-        <v>7.338591263979809</v>
+        <v>5.030681142090023</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.05575992822619</v>
+        <v>31.1432899313985</v>
       </c>
       <c r="G20">
-        <v>50.15765391366929</v>
+        <v>40.12006276187125</v>
       </c>
       <c r="H20">
-        <v>19.57786310448741</v>
+        <v>12.86630339180142</v>
       </c>
       <c r="I20">
-        <v>31.0657757454357</v>
+        <v>21.15938589059079</v>
       </c>
       <c r="J20">
-        <v>10.4797519018025</v>
+        <v>6.07742819156718</v>
       </c>
       <c r="K20">
-        <v>12.33646892407827</v>
+        <v>13.41046327862503</v>
       </c>
       <c r="L20">
-        <v>11.81716817972352</v>
+        <v>7.874567584646458</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.35649420210394</v>
+        <v>17.41665398776011</v>
       </c>
       <c r="C21">
-        <v>6.188832870065345</v>
+        <v>7.578500280110226</v>
       </c>
       <c r="D21">
-        <v>7.360944916138407</v>
+        <v>5.228494533190201</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>42.04492354363244</v>
+        <v>31.72226062937393</v>
       </c>
       <c r="G21">
-        <v>50.18296842700011</v>
+        <v>41.01167412527718</v>
       </c>
       <c r="H21">
-        <v>19.53727753294369</v>
+        <v>12.90387056206254</v>
       </c>
       <c r="I21">
-        <v>30.9983144767742</v>
+        <v>21.2267948399546</v>
       </c>
       <c r="J21">
-        <v>10.45853008302621</v>
+        <v>6.038880165445367</v>
       </c>
       <c r="K21">
-        <v>12.51391861564983</v>
+        <v>14.21770277162273</v>
       </c>
       <c r="L21">
-        <v>11.8275235372015</v>
+        <v>8.086986545402006</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.52146479330035</v>
+        <v>18.06841773219171</v>
       </c>
       <c r="C22">
-        <v>6.268101314780925</v>
+        <v>7.779916533530155</v>
       </c>
       <c r="D22">
-        <v>7.376283407200594</v>
+        <v>5.355462879481887</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.04511055422696</v>
+        <v>32.12114815208789</v>
       </c>
       <c r="G22">
-        <v>50.20975264185844</v>
+        <v>41.62446646331758</v>
       </c>
       <c r="H22">
-        <v>19.51332016432832</v>
+        <v>12.93721912363123</v>
       </c>
       <c r="I22">
-        <v>30.95874376321044</v>
+        <v>21.28716556736818</v>
       </c>
       <c r="J22">
-        <v>10.4453811211224</v>
+        <v>6.01525994164055</v>
       </c>
       <c r="K22">
-        <v>12.63042612099064</v>
+        <v>14.72502290266866</v>
       </c>
       <c r="L22">
-        <v>11.83569316881206</v>
+        <v>8.226535836397204</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.43342138278788</v>
+        <v>17.72298494464005</v>
       </c>
       <c r="C23">
-        <v>6.225986830648924</v>
+        <v>7.672916902302094</v>
       </c>
       <c r="D23">
-        <v>7.368031167254252</v>
+        <v>5.287917791200209</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>42.04434594021772</v>
+        <v>31.90635600596947</v>
       </c>
       <c r="G23">
-        <v>50.1945212222631</v>
+        <v>41.29462555617626</v>
       </c>
       <c r="H23">
-        <v>19.52587161627825</v>
+        <v>12.91858935225924</v>
       </c>
       <c r="I23">
-        <v>30.97944949451664</v>
+        <v>21.25340123078488</v>
       </c>
       <c r="J23">
-        <v>10.45233315224623</v>
+        <v>6.02772051759215</v>
       </c>
       <c r="K23">
-        <v>12.56820627143763</v>
+        <v>14.45609357513015</v>
       </c>
       <c r="L23">
-        <v>11.83120522367231</v>
+        <v>8.151998027884375</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.10016549671892</v>
+        <v>16.36101579031336</v>
       </c>
       <c r="C24">
-        <v>6.06232030661165</v>
+        <v>7.256678948292791</v>
       </c>
       <c r="D24">
-        <v>7.338238414207732</v>
+        <v>5.02741097259916</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.05605981608517</v>
+        <v>31.13416783660574</v>
       </c>
       <c r="G24">
-        <v>50.15741315466157</v>
+        <v>40.10599067555481</v>
       </c>
       <c r="H24">
-        <v>19.5785697766382</v>
+        <v>12.86583210661464</v>
       </c>
       <c r="I24">
-        <v>31.06695456399237</v>
+        <v>21.15854839300792</v>
       </c>
       <c r="J24">
-        <v>10.48011095764101</v>
+        <v>6.078084358529626</v>
       </c>
       <c r="K24">
-        <v>12.33358013612585</v>
+        <v>13.39692381104884</v>
       </c>
       <c r="L24">
-        <v>11.81702272363859</v>
+        <v>7.871109820444754</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.74300647259897</v>
+        <v>14.77507303429033</v>
       </c>
       <c r="C25">
-        <v>5.877325638134556</v>
+        <v>6.784322761988721</v>
       </c>
       <c r="D25">
-        <v>7.309321107346801</v>
+        <v>4.737483791487816</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.0999174773525</v>
+        <v>30.38686105590895</v>
       </c>
       <c r="G25">
-        <v>50.16138266557103</v>
+        <v>38.94978036819079</v>
       </c>
       <c r="H25">
-        <v>19.6464250244593</v>
+        <v>12.84411604913694</v>
       </c>
       <c r="I25">
-        <v>31.18070149434047</v>
+        <v>21.12128508532746</v>
       </c>
       <c r="J25">
-        <v>10.5131813295657</v>
+        <v>6.138973929302831</v>
       </c>
       <c r="K25">
-        <v>12.08393356055824</v>
+        <v>12.16592209283359</v>
       </c>
       <c r="L25">
-        <v>11.80780026918106</v>
+        <v>7.57214164122124</v>
       </c>
       <c r="M25">
         <v>0</v>
